--- a/BalanceSheet/SWK_bal.xlsx
+++ b/BalanceSheet/SWK_bal.xlsx
@@ -2778,7 +2778,7 @@
         <v>576000000.0</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>-241700000.0</v>
+        <v>568000000.0</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>590000000.0</v>
@@ -4922,7 +4922,7 @@
         <v>5342000000.0</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>3739000000.0</v>
+        <v>2881800000.0</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>3600200000.0</v>
@@ -5049,7 +5049,7 @@
         <v>6340000000.0</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>4054000000.0</v>
+        <v>3179500000.0</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>3911900000.0</v>
